--- a/tokenizing-test-cases.xlsx
+++ b/tokenizing-test-cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC\Desktop\Seneca\CPR101\CPR_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030397A-09EF-47AE-BC04-DC5292074AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4797E1C-07C3-4FF7-83F0-CE5B1D2ABDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,8 +1185,55 @@
     <t>Sting input: Hello World! Today is 11 / 28 / 2023</t>
   </si>
   <si>
-    <t>Hello World! Today is 11 / 28 / 2023
-Word #1 is 'Hello'
+    <t xml:space="preserve"> + Normal case: test normal input with alphabets (both Upper and lower case), numbers and special characters. Separate with whitespace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge case: test the input with no string but the '\n' new line character</t>
+  </si>
+  <si>
+    <t>Prompt user to enter some words again</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Normal case: quit the programming with character "q"</t>
+  </si>
+  <si>
+    <t>String input: q</t>
+  </si>
+  <si>
+    <t>The programming will leave the iteration and output a message of End of Demo</t>
+  </si>
+  <si>
+    <t>String input: Hello     World!(5 spaces)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge case: test the input with mutiple withespace(delimiter) between words</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Normal case: test input start with a single 'q' followed by other words</t>
+  </si>
+  <si>
+    <t>String input: q Hello World!</t>
+  </si>
+  <si>
+    <t>The program should tokenize the words and go to next iteration to prompt user input some word again</t>
+  </si>
+  <si>
+    <t>The program print out the result of tokenized word and end with a ending message</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge case: test the input with a whitespace(delimiter) only</t>
+  </si>
+  <si>
+    <t>String input: " "</t>
+  </si>
+  <si>
+    <t>no character, press keyboard 'enter' key only</t>
+  </si>
+  <si>
+    <t>Recommended fix: Logic should check if the string length is greater than 1 character. If the string length is greater than 1, then the iteration will continuous; if the string length is equal to 1 and the charater is 'q', then the iteration end.</t>
+  </si>
+  <si>
+    <t>Word #1 is 'Hello'
 Word #2 is 'World!'
 Word #3 is 'Today'
 Word #4 is 'is'
@@ -1197,57 +1244,8 @@
 Word #9 is '2023'</t>
   </si>
   <si>
-    <t xml:space="preserve"> + Normal case: test normal input with alphabets (both Upper and lower case), numbers and special characters. Separate with whitespace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Edge case: test the input with no string but the '\n' new line character</t>
-  </si>
-  <si>
-    <t>Prompt user to enter some words again</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Normal case: quit the programming with character "q"</t>
-  </si>
-  <si>
-    <t>String input: q</t>
-  </si>
-  <si>
-    <t>The programming will leave the iteration and output a message of End of Demo</t>
-  </si>
-  <si>
-    <t>Hello     World!
-Word #1 is 'Hello'
+    <t>Word #1 is 'Hello'
 Word #2 is 'World!'</t>
-  </si>
-  <si>
-    <t>String input: Hello     World!(5 spaces)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Edge case: test the input with mutiple withespace(delimiter) between words</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Normal case: test input start with a single 'q' followed by other words</t>
-  </si>
-  <si>
-    <t>String input: q Hello World!</t>
-  </si>
-  <si>
-    <t>The program should tokenize the words and go to next iteration to prompt user input some word again</t>
-  </si>
-  <si>
-    <t>The program print out the result of tokenized word and end with a ending message</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Edge case: test the input with a whitespace(delimiter) only</t>
-  </si>
-  <si>
-    <t>String input: " "</t>
-  </si>
-  <si>
-    <t>no character, press keyboard 'enter' key only</t>
-  </si>
-  <si>
-    <t>Recommended fix: Logic should check if the string length is greater than 1 character. If the string length is greater than 1, then the iteration will continuous; if the string length is equal to 1 and the charater is 'q', then the iteration end.</t>
   </si>
 </sst>
 </file>
@@ -1791,6 +1789,33 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1802,33 +1827,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2188,22 +2186,22 @@
       <c r="B1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="41" t="str">
+      <c r="C1" s="50" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="27"/>
       <c r="F2" s="18" t="s">
         <v>11</v>
@@ -2315,7 +2313,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
@@ -2394,7 +2392,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2415,23 +2413,23 @@
       <c r="B1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="41" t="str">
+      <c r="C1" s="50" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As Tokenizing_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2440,19 +2438,19 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -2462,64 +2460,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>42</v>
+      <c r="B4" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>55</v>
+      <c r="B6" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="50"/>
+      <c r="G6" s="46"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="48"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
@@ -2527,75 +2525,75 @@
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>50</v>
+      <c r="B7" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>58</v>
+      <c r="G9" s="47" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="46" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2659,13 +2657,13 @@
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="20" t="s">
         <v>11</v>
       </c>

--- a/tokenizing-test-cases.xlsx
+++ b/tokenizing-test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC\Desktop\Seneca\CPR101\CPR_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4797E1C-07C3-4FF7-83F0-CE5B1D2ABDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE1EF77-517C-4532-89FE-F3E2BAC37178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>Comments</t>
   </si>
@@ -1175,10 +1175,6 @@
     <t>Tokenizing</t>
   </si>
   <si>
-    <t>Wing Ho Chau
-11-28/2023</t>
-  </si>
-  <si>
     <t>tokenizing()</t>
   </si>
   <si>
@@ -1246,6 +1242,95 @@
   <si>
     <t>Word #1 is 'Hello'
 Word #2 is 'World!'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Normal case: test input without delimiter</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'Hello World! Today is 12 / 1 / 2023'</t>
+  </si>
+  <si>
+    <t>Wing Ho Chau
+11-28-2023</t>
+  </si>
+  <si>
+    <t>Wing Ho Chau
+12-1-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge case: test input with ,(delimiter) only</t>
+  </si>
+  <si>
+    <t>Strings input: ,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>Strings input: Hello World! Today is 12 / 1 / 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge case: test input with multiple ,(delimiter) between the phrases</t>
+  </si>
+  <si>
+    <t>String input: Hi123,,,,,,,,,,,,,,,,,Hi123</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'Hi123'
+Phrase #2 is 'Hi123'</t>
+  </si>
+  <si>
+    <t>String input: 1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge case: test overflow. test input with 310 charaters (Buffer size is 300)</t>
+  </si>
+  <si>
+    <t>Phrase #1 is '111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110'  (Display the output with 300 charaters only)</t>
+  </si>
+  <si>
+    <t>Phrase #1 is '1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111'
+Type a few words separated by space (q - to quit):
+Phrase #1 is '01111111110'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge case: test input with 300 characters and tokenize the input with every 100 charaters</t>
+  </si>
+  <si>
+    <t>Strings input: 1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110,11111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110,1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110</t>
+  </si>
+  <si>
+    <t>Phrase #1 is '1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110'
+Phrase #2 is '1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110'
+Phrase #3 is '1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110'</t>
+  </si>
+  <si>
+    <t>Phrase #1 is '1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110'
+Phrase #2 is '11111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110'
+Phrase #3 is '11111111101111111110111111111011111111101111111110111111111011111111101111111110111111'
+Type a few words separated by space (q - to quit):
+Phrase #1 is '1101111111110'</t>
+  </si>
+  <si>
+    <t>Comment: The input was indeed restricted and the program did not crash, but the results were unexpected. When the input is over 298 characters, it will start a new loop and take the buffer as a new input.
+Recommended fix: Specific the number of characters of input can be entered in the prompt message. Then limit the number of inputs and clear the extra buffer.</t>
+  </si>
+  <si>
+    <t>Comment: The output shows the result correctly for the first two Phrases, but incorrect output for the third. The third output only has 86 characters and it starts a new loop after. The new loop takes the input buffer as input and the first character disappears. This is an unexpected behavior. The disappeared character may be treated as a delimiter.
+Recommended fix: Specific the number of characters of input can be entered in the prompt message. Then limit the number of inputs and clear the extra buffer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Normal case: test input start with a single 'q' followed by a comma and other words</t>
+  </si>
+  <si>
+    <t>Strings input: q,123</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'q'
+Phrase #2 is '123'
+The program should tokenize the words and go to next iteration to prompt user input some word again</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'q'
+Phrase #2 is '123'
+*** End of Tokenizing Words Demo ***</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1654,17 +1739,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1673,7 +1747,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1801,9 +1875,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1827,13 +1898,42 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2186,22 +2286,22 @@
       <c r="B1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="50" t="str">
+      <c r="C1" s="49" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="27"/>
       <c r="F2" s="18" t="s">
         <v>11</v>
@@ -2365,18 +2465,18 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>ISNUMBER(SEARCH("PASS",$E3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>ISNUMBER(SEARCH("FAIL",$E3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2391,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2413,28 +2513,28 @@
       <c r="B1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="50" t="str">
+      <c r="C1" s="49" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As Tokenizing_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -2462,139 +2562,139 @@
     </row>
     <row r="4" spans="1:16" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="46"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="45"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="44"/>
+      <c r="N6" s="43"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:16" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>56</v>
+      <c r="G9" s="46" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="43" t="s">
-        <v>36</v>
+      <c r="G10" s="33" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2620,50 +2720,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+    <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>67</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="F13" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="331.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="20" t="s">
         <v>11</v>
       </c>
@@ -2755,12 +2942,20 @@
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="F4:F11 F18:F1048576">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F17">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(SEARCH("PASS",$F12))</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
+      <formula>ISNUMBER(SEARCH("FAIL",$F12))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tokenizing-test-cases.xlsx
+++ b/tokenizing-test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC\Desktop\Seneca\CPR101\CPR_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE1EF77-517C-4532-89FE-F3E2BAC37178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFB1537-DD57-4E09-8833-D140938DDDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
   <si>
     <t>Comments</t>
   </si>
@@ -1168,10 +1168,6 @@
     <t>Sample Test Cases</t>
   </si>
   <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
-  </si>
-  <si>
     <t>Tokenizing</t>
   </si>
   <si>
@@ -1224,9 +1220,6 @@
   </si>
   <si>
     <t>no character, press keyboard 'enter' key only</t>
-  </si>
-  <si>
-    <t>Recommended fix: Logic should check if the string length is greater than 1 character. If the string length is greater than 1, then the iteration will continuous; if the string length is equal to 1 and the charater is 'q', then the iteration end.</t>
   </si>
   <si>
     <t>Word #1 is 'Hello'
@@ -1280,18 +1273,12 @@
     <t>String input: 1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110</t>
   </si>
   <si>
-    <t xml:space="preserve"> + Edge case: test overflow. test input with 310 charaters (Buffer size is 300)</t>
-  </si>
-  <si>
     <t>Phrase #1 is '111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110'  (Display the output with 300 charaters only)</t>
   </si>
   <si>
     <t>Phrase #1 is '1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111'
 Type a few words separated by space (q - to quit):
 Phrase #1 is '01111111110'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Edge case: test input with 300 characters and tokenize the input with every 100 charaters</t>
   </si>
   <si>
     <t>Strings input: 1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110,11111111101111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110,1111111110111111111011111111101111111110111111111011111111101111111110111111111011111111101111111110</t>
@@ -1331,6 +1318,121 @@
     <t>Phrase #1 is 'q'
 Phrase #2 is '123'
 *** End of Tokenizing Words Demo ***</t>
+  </si>
+  <si>
+    <t>Wing Ho Chau
+12-6-2023</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'I am here'
+Sentence #2 is 'I am going to test this program'
+Sentence #3 is 'This is test case 1'</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'I am here'
+Sentence #2 is ' I am going to test this program'
+Sentence #3 is ' This is test case 1'</t>
+  </si>
+  <si>
+    <t>Recommended fix: Usually we enter a space the separate the sentence between sentences. It takes period (.) as a delimiter only. It should also take the period followed by a space as a delimiter.</t>
+  </si>
+  <si>
+    <t>Strings input: I am here. I am going to test this program. This is test case 1.</t>
+  </si>
+  <si>
+    <t>Strings input: This is test case 2, and it has no period in the sentences</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'This is test case 2, and it has no period in the sentencesr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Edge case: test input with 300 characters and tokenize the input with every 100 charaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Edge case: test overflow. test input with 310 charaters (Buffer size is 300)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge case: test input with multiple .(delimiter) between sentences</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'This is test case 3'
+Sentence #2 is 'I put five period between sentences'</t>
+  </si>
+  <si>
+    <t>Strings input: This is test case 3.....I put five period between sentences</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Normal case: test input with sentences input. Each sentence end end with a period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Normal case: test input that start with a lower letter 'q' followed by any other charaters</t>
+  </si>
+  <si>
+    <t>Strings input: question one. question two. answer</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'question one'
+Sentence #2 is ' question two'
+Sentence #3 is ' answer'</t>
+  </si>
+  <si>
+    <t>Strings input: q. This is test case 6. If the promgram is correct, the loop with continues.</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'q'
+Sentence #2 is ' This is test case 6'
+Sentence #3 is ' If the promgram is correct, the loop with continues'
+and it will prompt user to input some sentences again</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'q'
+Sentence #2 is ' This is test case 6'
+Sentence #3 is ' If the promgram is correct, the loop with continues'
+*** End of Tokenizing Words Demo ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Edge case: test input that with a single 'q' followed by a period</t>
+  </si>
+  <si>
+    <t>Recommended fix: Logic should check if the input string length is greater than 1 character. If the string length is greater than 1, then the iteration will continuous; if the string length is equal to 1 and the charater is 'q', then the iteration end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Edge case: test overflow. test input with more than 300 charaters (Buffer size is 300)</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'This is sentence 1'
+Sentence #2 is 'This is sentence 2'
+Sentence #3 is 'This is sentence 3'
+Sentence #4 is 'This is sentence 4'
+Sentence #5 is 'This is sentence 5'
+Sentence #6 is 'This is sentence 6'
+Sentence #7 is 'This is sentence 7'
+Sentence #8 is 'This is sentence 8'
+Sentence #9 is 'This is sentence 9'
+Sentence #10 is 'This is sentence 10'
+The result print until Sentence #24 is 'This is sentence 24</t>
+  </si>
+  <si>
+    <t>Strings input: This is sentence 1.This is sentence 2.This is sentence 3.This is sentence 4.This is sentence 5.This is sentence 6.This is sentence 7.This is sentence 8.This is sentence 9.This is sentence 10.This is sentence 11.This is sentence 12.This is sentence 13.This is sentence 14.This is sentence 15.This is sentence 16.This is sentence 17.This is sentence 18.This is sentence 19.This is sentence 20.This is sentence 21.This is sentence 22.This is sentence 23.This is sentence 24</t>
+  </si>
+  <si>
+    <t>First 15 sentences are correct, but the error start at sentences 16
+Sentence #14 is 'This is sentence 14'
+Sentence #15 is 'This is sentence 15'
+Sentence #16 is 'This is'
+Type a few words separated by space (q - to quit):
+Sentence #1 is 'sentence 16'
+Sentence #2 is 'This is sentence 17'
+Sentence #3 is 'This is sentence 18'
+Sentence #4 is 'This is sentence 19'
+Sentence #5 is 'This is sentence 20'
+Sentence #6 is 'This is sentence 21'
+Sentence #7 is 'This is sentence 22'
+Sentence #8 is 'This is sentence 23'
+Sentence #9 is 'This is sentence 24'</t>
+  </si>
+  <si>
+    <t>Recommended fix: Specific the number of characters of input can be entered in the prompt message. Then limit the number of inputs and clear the extra buffer.</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1739,6 +1841,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1747,7 +1860,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1854,15 +1967,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,19 +2003,13 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1919,21 +2017,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2286,22 +2370,22 @@
       <c r="B1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="49" t="str">
+      <c r="C1" s="46" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="27"/>
       <c r="F2" s="18" t="s">
         <v>11</v>
@@ -2465,18 +2549,18 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>ISNUMBER(SEARCH("PASS",$E3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>ISNUMBER(SEARCH("FAIL",$E3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2491,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2511,46 +2595,46 @@
         <v>9</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="49" t="str">
+        <v>36</v>
+      </c>
+      <c r="C1" s="46" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As Tokenizing_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -2562,142 +2646,142 @@
     </row>
     <row r="4" spans="1:16" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="42"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="43"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>55</v>
+      <c r="G9" s="43" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="42" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>31</v>
       </c>
@@ -2721,144 +2805,147 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="52" t="s">
+      <c r="A12" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="23" t="s">
+      <c r="D13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="41" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="52" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="331.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G16" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="331.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="E17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="54" t="s">
+      <c r="G17" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>31</v>
       </c>
@@ -2881,41 +2968,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="23"/>
+    <row r="20" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="408" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
@@ -2942,20 +3119,12 @@
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F11 F18:F1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="F4:F1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F17">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISNUMBER(SEARCH("PASS",$F12))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISNUMBER(SEARCH("FAIL",$F12))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tokenizing-test-cases.xlsx
+++ b/tokenizing-test-cases.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC\Desktop\Seneca\CPR101\CPR_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFB1537-DD57-4E09-8833-D140938DDDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134F233A-BD13-4D06-9B88-6D31C74F665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="example to be deleted" sheetId="2" r:id="rId1"/>
-    <sheet name="-the-name-of-your- module" sheetId="3" r:id="rId2"/>
+    <sheet name="Tokenizing" sheetId="3" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'example to be deleted'!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +36,7 @@
     <author>Tim McKenna</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{28F9C1B6-8161-48AD-8232-EDF81EF44441}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{73CDDCC5-DEF9-4198-AB6F-663FBFA75AEC}">
       <text>
         <r>
           <rPr>
@@ -84,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{17C667EC-0DB7-424A-82BF-CB090F575831}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C5E57DF2-75BE-427E-B461-846D7F195E14}">
       <text>
         <r>
           <rPr>
@@ -149,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{F1391267-ACFB-48B3-B90E-E868937AEEF4}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{4679AE41-C1FC-42AC-AC68-EBAC777A24D9}">
       <text>
         <r>
           <rPr>
@@ -175,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{D27A3910-B732-4FBE-BF09-EB6F34085059}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2891D1DC-16FD-429F-AADE-260368988D34}">
       <text>
         <r>
           <rPr>
@@ -220,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{FDD8C2E7-8DCE-436C-A522-7E8C3AE0282F}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{56C701D0-649D-415A-8827-D8C01E5844B0}">
       <text>
         <r>
           <rPr>
@@ -244,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{846C2645-8913-4B83-91E6-6124C669E9E0}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{1CFD9AEA-4F24-48EF-8683-675BA2D08F3F}">
       <text>
         <r>
           <rPr>
@@ -267,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{31718B40-6A33-4E87-9011-DC21BC4291BC}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{7AB124D7-8C8A-44DD-A61F-3B2C3D2DE3F5}">
       <text>
         <r>
           <rPr>
@@ -282,17 +278,7 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Tim McKenna</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{73CDDCC5-DEF9-4198-AB6F-663FBFA75AEC}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
       <text>
         <r>
           <rPr>
@@ -336,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C5E57DF2-75BE-427E-B461-846D7F195E14}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
       <text>
         <r>
           <rPr>
@@ -401,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{4679AE41-C1FC-42AC-AC68-EBAC777A24D9}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
       <text>
         <r>
           <rPr>
@@ -427,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2891D1DC-16FD-429F-AADE-260368988D34}">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
       <text>
         <r>
           <rPr>
@@ -472,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{56C701D0-649D-415A-8827-D8C01E5844B0}">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
       <text>
         <r>
           <rPr>
@@ -496,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{1CFD9AEA-4F24-48EF-8683-675BA2D08F3F}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
       <text>
         <r>
           <rPr>
@@ -519,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{7AB124D7-8C8A-44DD-A61F-3B2C3D2DE3F5}">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
       <text>
         <r>
           <rPr>
@@ -534,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
       <text>
         <r>
           <rPr>
@@ -578,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
       <text>
         <r>
           <rPr>
@@ -643,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
       <text>
         <r>
           <rPr>
@@ -669,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
       <text>
         <r>
           <rPr>
@@ -714,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
       <text>
         <r>
           <rPr>
@@ -738,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
       <text>
         <r>
           <rPr>
@@ -761,248 +747,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output or Response:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hover over Result and Comments for more details.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Result:
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G19" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
       <text>
         <r>
@@ -1023,7 +767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>Comments</t>
   </si>
@@ -1031,25 +775,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>+ Edge case: Open empty document</t>
-  </si>
-  <si>
-    <t>The documents can be opened, edited, and saved successfully. Verify the contents of the saved file reflect changes made.</t>
-  </si>
-  <si>
-    <t>- Open document over maximum size</t>
-  </si>
-  <si>
-    <t>graceful recovery without excessive data loss.</t>
-  </si>
-  <si>
-    <t>+ Edge case: Open document near maximum size</t>
-  </si>
-  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>When the document is too big for the system to handle, an error message is shown offering recovery and document closing / saving options.</t>
   </si>
   <si>
     <t>Program
@@ -1072,57 +798,11 @@
     <t>Expected result</t>
   </si>
   <si>
-    <t>- Open document of average size</t>
-  </si>
-  <si>
-    <t>+ Open documents of different sizes within expected range of normal usage.</t>
-  </si>
-  <si>
-    <t>Empty edit window at start with "empty file" warning. Add data. Verify saved contents reflects additions made.</t>
-  </si>
-  <si>
     <t>Actual result
 if unexpected</t>
   </si>
   <si>
-    <t>Open each file, add a new row or paragraph of content at the beginning, middle, and end of the document. Save the file. 
-Input: small.txt, medium.txt, big.txt</t>
-  </si>
-  <si>
-    <t>Open zero byte size file. Add content and save.  
-Input: empty.txt</t>
-  </si>
-  <si>
-    <t>Open file near maximum size. Add sufficient content to exceed application memory and attempt to save. 
-Input: almost-too-big.txt</t>
-  </si>
-  <si>
-    <t>Open file near maximum size. Add sufficient content to exceed OS file system's maximum size, and attempt to save. 
-Input: almost-too-big.txt</t>
-  </si>
-  <si>
-    <t>Open documents where size exceeds available memory.  
-Input: huge.txt</t>
-  </si>
-  <si>
-    <t>Open average size document,
-Add enough text to exceed maximum size,
-Save. 
-Input: almost-too-big.txt</t>
-  </si>
-  <si>
-    <t>Recommended fix: Logic should check total size of text as it is being entered during edit. Possible message: "Maximum size reached. No more input can be accepted."</t>
-  </si>
-  <si>
-    <t>Tester's Name
-Date</t>
-  </si>
-  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>BSOD Application memory limit exceeded.
-Recommended fix: Logic should check size of file before loading into memory. Possible message: "Loading this file may exceed available memory. Continue?"</t>
   </si>
   <si>
     <t>Data Input</t>
@@ -1154,20 +834,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">editFile()
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">editFile()
-</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>Sample Test Cases</t>
-  </si>
-  <si>
     <t>Tokenizing</t>
   </si>
   <si>
@@ -1439,7 +1105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1452,11 +1118,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1464,12 +1125,6 @@
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1531,11 +1186,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="10"/>
@@ -1549,7 +1199,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1559,12 +1209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,7 +1249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1617,7 +1261,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1630,77 +1274,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1792,30 +1365,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1855,197 +1404,109 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2343,774 +1804,545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="27.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="46" t="str">
-        <f>"Do not save or use this worksheet – sample test cases only"</f>
-        <v>Do not save or use this worksheet – sample test cases only</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="2">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>ISNUMBER(SEARCH("PASS",$E3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>ISNUMBER(SEARCH("FAIL",$E3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
-  <dimension ref="A1:P28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="46" t="str">
+      <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="29" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As Tokenizing_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="20" t="s">
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="D11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="331.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="1:16" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="33" t="s">
+      <c r="F20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="8" t="s">
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="408" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="331.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="40" t="s">
+      <c r="E25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="F25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="408" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="23"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="23"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="23"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
